--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3241796.303118283</v>
+        <v>3239908.72160188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.6999128968758</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>86.73403106392352</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690526</v>
       </c>
       <c r="X4" t="n">
-        <v>102.5756487563989</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
-        <v>295.5116937803206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.9137890538184</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>310.2076895021003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013941</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.1893754712104</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>218.2838275025091</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>114.7297790606521</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896895</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2053,13 +2053,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>172.706717846737</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>96.38718145721424</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>93.87916681139892</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6276470398216</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.66111384519322</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>42.20569823125265</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.690638606345</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>924.728121665933</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>566.4624230591826</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>566.4624230591826</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>559.5169223099791</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>141.553114208166</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>141.553114208166</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,25 +4413,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.885894456657</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.923377516245</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.657678909495</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>923.8694263112502</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>753.652686426311</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>753.652686426311</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>746.7071856771075</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.80799051105</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
         <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,16 +5221,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
         <v>614.6238123952638</v>
@@ -5242,7 +5242,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506741</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1278.427555908903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>989.2989171224613</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>989.2989171224613</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>989.2989171224613</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X16" t="n">
-        <v>761.3093662244439</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.5167870809138</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>835.4163915387936</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018331</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038157</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387941</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018334</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1201.635471122733</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U25" t="n">
-        <v>1201.635471122733</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V25" t="n">
-        <v>946.9509829168462</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W25" t="n">
-        <v>657.5338128798857</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X25" t="n">
-        <v>429.5442619818684</v>
+        <v>192.0445326839211</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531122</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.10087974468</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387937</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018332</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542165</v>
+        <v>565.4200295030885</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076803</v>
+        <v>565.4200295030885</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767153</v>
+        <v>471.0642553721238</v>
       </c>
       <c r="E31" t="n">
-        <v>139.8491098756926</v>
+        <v>378.9120270711015</v>
       </c>
       <c r="F31" t="n">
-        <v>139.8491098756926</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>139.8491098756926</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818916</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365245</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030855</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7315,7 +7315,7 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,10 +7354,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771662</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7631,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083207</v>
@@ -7795,19 +7795,19 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>176.7176547498458</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>87.16935584025441</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>76.43196988338542</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>199.6230805871093</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.263733555880123</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.8548742914426</v>
       </c>
     </row>
     <row r="17">
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>79.43092547709099</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.160379601175</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>124.7054865406959</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518764</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>73.0820083492156</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>71.55667754918089</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>51.50487350772631</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759749.8920541814</v>
+        <v>759749.8920541815</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672199</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196957</v>
+        <v>671256.5266196956</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380347</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.460138034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007571</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020399</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="N4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732794</v>
-      </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558413</v>
+        <v>-143384.5458558414</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="D6" t="n">
         <v>446583.3333587028</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559905</v>
+        <v>20036.3953596275</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624951</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624951</v>
+        <v>545196.4318365236</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624954</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624954</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699019</v>
+        <v>368773.21264393</v>
       </c>
       <c r="K6" t="n">
-        <v>504384.3586164234</v>
+        <v>504365.8648784887</v>
       </c>
       <c r="L6" t="n">
-        <v>538965.9286198134</v>
+        <v>538965.9286198136</v>
       </c>
       <c r="M6" t="n">
-        <v>414507.8201868432</v>
+        <v>414507.820186843</v>
       </c>
       <c r="N6" t="n">
-        <v>549308.8354206813</v>
+        <v>549308.8354206805</v>
       </c>
       <c r="O6" t="n">
-        <v>549308.8354206803</v>
+        <v>549308.8354206802</v>
       </c>
       <c r="P6" t="n">
-        <v>505146.2301178347</v>
+        <v>505146.2301178349</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.03392876660473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.19728518093773</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753841</v>
       </c>
       <c r="X4" t="n">
-        <v>123.1340066326382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
-        <v>111.3643519613908</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>51.8703809669766</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>39.03327921531269</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498795</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.927418225022848e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-2.167562805570827e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>425.9753597058701</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813625</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941225</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043173</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>283.5253848149101</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>406.716495518634</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
